--- a/public/treinamentos.xlsx
+++ b/public/treinamentos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t xml:space="preserve">nome_treinamentos</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Tecnico de Seguranca</t>
   </si>
   <si>
+    <t xml:space="preserve">Inativo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manuseio de Tratores</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t xml:space="preserve">Assistente Administrativo</t>
   </si>
   <si>
-    <t xml:space="preserve">Inativo</t>
+    <t xml:space="preserve">Engenheiro Quimico</t>
   </si>
 </sst>
 </file>
@@ -77,11 +80,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +107,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,16 +163,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="A1:D6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,18 +354,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -354,10 +373,10 @@
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
@@ -368,16 +387,30 @@
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/treinamentos.xlsx
+++ b/public/treinamentos.xlsx
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,11 +114,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,11 +171,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,7 +301,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,16 +391,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/treinamentos.xlsx
+++ b/public/treinamentos.xlsx
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +114,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +178,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -298,10 +311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,6 +416,12 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/treinamentos.xlsx
+++ b/public/treinamentos.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Seguranca no Trabalho</t>
   </si>
   <si>
-    <t xml:space="preserve">Operador de Maquinas</t>
+    <t xml:space="preserve">Engenheiro de Producao</t>
   </si>
   <si>
     <t xml:space="preserve">Ativo</t>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,11 +114,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,11 +158,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,11 +179,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,114 +313,119 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D8"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
